--- a/Stracture.xlsx
+++ b/Stracture.xlsx
@@ -98,12 +98,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,10 +130,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,7 +442,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,74 +452,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
